--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlhqu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE073B03-8740-4FDB-8190-8FD5A640E936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C7F82-F364-403B-A0A5-64A8213AC7EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2325" windowWidth="21600" windowHeight="12915" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="-1530" yWindow="1770" windowWidth="21600" windowHeight="12915" firstSheet="1" activeTab="2" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Value</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>[the earliest- the lastest]</t>
+  </si>
+  <si>
+    <t>Vehicle 5</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,11 +231,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,126 +564,132 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="J3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="J4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="J5" s="9" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="J6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -685,12 +698,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1115,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688088B0-3F46-4660-9239-F1F66F7E483D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697A500-E27F-4E63-9779-90EBED01BD57}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,6 +1768,14 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C7F82-F364-403B-A0A5-64A8213AC7EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD7429-179D-4E84-9D0F-99EEE159DD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1530" yWindow="1770" windowWidth="21600" windowHeight="12915" firstSheet="1" activeTab="2" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="5055" yWindow="1560" windowWidth="21600" windowHeight="12915" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -231,15 +231,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,132 +564,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="J4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="J5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="J6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -698,6 +692,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688088B0-3F46-4660-9239-F1F66F7E483D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697A500-E27F-4E63-9779-90EBED01BD57}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,15 +1765,15 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11">
-        <v>200</v>
+      <c r="B6" s="9">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD7429-179D-4E84-9D0F-99EEE159DD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888A519-FEEB-4859-AD5C-CEB8641CE551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1560" windowWidth="21600" windowHeight="12915" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="12645" yWindow="2460" windowWidth="21600" windowHeight="12915" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -235,11 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,126 +564,132 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -692,12 +698,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,39 +1543,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,15 +1583,15 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,15 +1599,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697A500-E27F-4E63-9779-90EBED01BD57}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888A519-FEEB-4859-AD5C-CEB8641CE551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E9F6F-DD49-4A40-AB77-CD5328EB0FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="2460" windowWidth="21600" windowHeight="12915" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="10425" yWindow="4740" windowWidth="21600" windowHeight="12915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -235,11 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,132 +564,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="J4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -698,6 +692,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E9F6F-DD49-4A40-AB77-CD5328EB0FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE63D60-110C-4E3F-8C6A-8C4E01757111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="4740" windowWidth="21600" windowHeight="12915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="4320" yWindow="3315" windowWidth="21600" windowHeight="12915" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -235,11 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,126 +564,132 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -692,12 +698,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>24</v>
+        <v>999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N12" sqref="N12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE63D60-110C-4E3F-8C6A-8C4E01757111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D23208-C74C-4E0A-96A3-939682A4BF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3315" windowWidth="21600" windowHeight="12915" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="570" yWindow="1335" windowWidth="21600" windowHeight="12915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Value</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Vehicle 5</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1518,104 +1521,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>999999999</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D23208-C74C-4E0A-96A3-939682A4BF1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2DBFB-2404-4120-86F7-659189AD6B1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1335" windowWidth="21600" windowHeight="12915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="14520" yWindow="3540" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -238,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,132 +567,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="J4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -701,6 +695,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -1616,10 +1616,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2DBFB-2404-4120-86F7-659189AD6B1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA5AE5-A7AF-4D27-8AD7-AFA1C82C759C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="3540" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="6015" yWindow="3120" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -238,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,126 +567,132 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -695,12 +701,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -1605,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>8.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,10 +1616,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA5AE5-A7AF-4D27-8AD7-AFA1C82C759C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78174562-9203-43A5-A1B1-009A9B02DBE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="3120" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="5940" yWindow="4155" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -238,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,132 +567,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="J4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -701,6 +695,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -1572,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
@@ -1616,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78174562-9203-43A5-A1B1-009A9B02DBE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F03E2-6189-4460-9F4D-C85BA5031592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="4155" windowWidth="21600" windowHeight="9915" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="9870" yWindow="4050" windowWidth="14235" windowHeight="9915" firstSheet="4" activeTab="6" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Time Window" sheetId="5" r:id="rId4"/>
     <sheet name="Demand Matrix" sheetId="7" r:id="rId5"/>
     <sheet name="Capicity" sheetId="8" r:id="rId6"/>
+    <sheet name="Time Service" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Value</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>Service</t>
   </si>
 </sst>
 </file>
@@ -213,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +719,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -772,31 +779,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="E2" s="6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="G2" s="6">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H2" s="6">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I2" s="6">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="J2" s="6">
         <v>0.6</v>
       </c>
       <c r="K2" s="6">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -804,34 +811,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="E3" s="6">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="F3" s="6">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="6">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="I3" s="6">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="6">
         <v>1.8</v>
       </c>
       <c r="K3" s="6">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -839,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="6">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -851,22 +858,22 @@
         <v>2.1</v>
       </c>
       <c r="F4" s="6">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="G4" s="6">
-        <v>1.1000000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H4" s="6">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="I4" s="6">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="D5" s="6">
         <v>2.1</v>
@@ -886,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="G5" s="6">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H5" s="6">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5" s="6">
-        <v>1.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5" s="6">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="6">
         <v>2.2000000000000002</v>
@@ -909,34 +916,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>1.1000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H6" s="6">
         <v>1.7</v>
       </c>
       <c r="I6" s="6">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J6" s="6">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="K6" s="6">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,34 +951,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="C7" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="I7" s="6">
         <v>1.3</v>
       </c>
-      <c r="D7" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.8</v>
-      </c>
       <c r="J7" s="6">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -979,22 +986,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E8" s="6">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
       </c>
       <c r="F8" s="6">
         <v>1.7</v>
       </c>
       <c r="G8" s="6">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1003,10 +1010,10 @@
         <v>1.2</v>
       </c>
       <c r="J8" s="6">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="K8" s="6">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1014,22 +1021,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="C9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="6">
         <v>1.3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.8</v>
       </c>
       <c r="H9" s="6">
         <v>1.2</v>
@@ -1038,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="K9" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1058,25 +1065,25 @@
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G10" s="6">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H10" s="6">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="I10" s="6">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,31 +1091,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="C11" s="6">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="6">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="E11" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="6">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="G11" s="6">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H11" s="6">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="I11" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
@@ -1523,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,4 +1825,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD82216-2C51-4363-86B2-29357725585A}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F03E2-6189-4460-9F4D-C85BA5031592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43CB35-A32F-44A9-BA5E-9621F0471C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="4050" windowWidth="14235" windowHeight="9915" firstSheet="4" activeTab="6" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="11805" yWindow="2805" windowWidth="14235" windowHeight="9915" firstSheet="3" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -242,14 +242,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,26 +574,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
@@ -607,15 +607,15 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
@@ -629,13 +629,13 @@
       <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
@@ -649,15 +649,15 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
@@ -671,29 +671,35 @@
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -702,12 +708,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
@@ -1831,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD82216-2C51-4363-86B2-29357725585A}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -1847,7 +1847,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
     </row>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43CB35-A32F-44A9-BA5E-9621F0471C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937E016-CAE1-48BF-8671-959E636D00A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="2805" windowWidth="14235" windowHeight="9915" firstSheet="3" activeTab="3" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="16650" yWindow="2235" windowWidth="14235" windowHeight="9915" firstSheet="1" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -245,11 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,132 +574,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -708,6 +702,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6">
         <v>4.5</v>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64199D51-0A9C-4271-B626-926E2967ADB8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937E016-CAE1-48BF-8671-959E636D00A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DFCE47-65F4-40D9-8D2C-C146A57F4FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16650" yWindow="2235" windowWidth="14235" windowHeight="9915" firstSheet="1" activeTab="1" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="10215" yWindow="1410" windowWidth="15015" windowHeight="7860" firstSheet="3" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -245,11 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,126 +574,132 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="J4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -702,12 +708,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EADC77A-A9A0-442C-9D68-575FC0198A66}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6">
         <v>4.5</v>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -1579,10 +1579,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>17</v>
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C697A500-E27F-4E63-9779-90EBED01BD57}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modeling/logistic.xlsx
+++ b/modeling/logistic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\Routing_optimization\modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\Routing_optimization\modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DFCE47-65F4-40D9-8D2C-C146A57F4FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5893D0-F4C3-41D0-9CB0-3AD938C16AF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="1410" windowWidth="15015" windowHeight="7860" firstSheet="3" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
+    <workbookView xWindow="10845" yWindow="5685" windowWidth="14235" windowHeight="9915" firstSheet="3" activeTab="5" xr2:uid="{298FD6C0-0A5D-4939-95FB-5AA249284DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTE OPTIMIZATION " sheetId="9" r:id="rId1"/>
@@ -245,11 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,132 +574,126 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="J6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -708,6 +702,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1766,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
